--- a/ProjektLagerverwaltungssystem/resources/Lagerhaltung.xlsx
+++ b/ProjektLagerverwaltungssystem/resources/Lagerhaltung.xlsx
@@ -117,10 +117,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -131,10 +131,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">

--- a/ProjektLagerverwaltungssystem/resources/Lagerhaltung.xlsx
+++ b/ProjektLagerverwaltungssystem/resources/Lagerhaltung.xlsx
@@ -120,7 +120,7 @@
         <v>10.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -134,7 +134,7 @@
         <v>10.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
